--- a/datasets/results_council.xlsx
+++ b/datasets/results_council.xlsx
@@ -2616,7 +2616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F555"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -2624,6 +2624,7 @@
   <cols>
     <col min="1" max="1" width="17.85546875" style="1"/>
     <col min="3" max="4" width="17.85546875" style="1"/>
+    <col min="6" max="6" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
